--- a/me/1.training_sass/03-Extensions.xlsx
+++ b/me/1.training_sass/03-Extensions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1B158-D1E9-4A89-84FD-9E71AC605EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D9138-54E8-4595-87F1-59E4198F58AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nesting element" sheetId="1" r:id="rId1"/>
+    <sheet name="Nesting property" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>構成</t>
   </si>
@@ -160,6 +161,77 @@
   </si>
   <si>
     <t>01-element.css(01-element.css được tạo ra khi convert)</t>
+  </si>
+  <si>
+    <t>2.Nesting-property</t>
+  </si>
+  <si>
+    <t>02-properties.scss</t>
+  </si>
+  <si>
+    <t>            font: {</t>
+  </si>
+  <si>
+    <t>                size: 30em;</t>
+  </si>
+  <si>
+    <t>                weight: bold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }   </t>
+  </si>
+  <si>
+    <t>02-properties.css</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 30em;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bold; }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -631,6 +703,319 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475985</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1337EA-7282-2E9D-5251-7D01604AC412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="2286000"/>
+          <a:ext cx="2123810" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608609</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>65952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86655530-256C-9001-76FB-8FA7E51832A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="7923809" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580038</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B192104-7385-9BB4-0BDE-487178B71754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11430000"/>
+          <a:ext cx="7895238" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599086</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCA5F5D-7489-3998-533B-3F217A09648C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17526000"/>
+          <a:ext cx="7914286" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570514</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FD0EA9-4712-6EEA-9FE3-7F8A25DE2945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23622000"/>
+          <a:ext cx="7885714" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84652</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>113539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246B537-14E3-3AB6-9BB4-E2C63B67E110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="29841825"/>
+          <a:ext cx="8580952" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361482</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216C9DC6-DD61-0B7B-B9C0-1154971A957D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="2400300"/>
+          <a:ext cx="3742857" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -899,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="J236" sqref="J236"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,4 +1794,352 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E0BB2-2928-418D-AE6D-ECA0961162E1}">
+  <dimension ref="A2:I208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="J208" sqref="J208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="3"/>
+      <c r="C195" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="8"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="3"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="8"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="3"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="8"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="3"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="8"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="3"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H199" s="8"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G200" s="5"/>
+      <c r="H200" s="9"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="8"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="3"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/03-Extensions.xlsx
+++ b/me/1.training_sass/03-Extensions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D9138-54E8-4595-87F1-59E4198F58AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A28E18D-7026-4325-B266-76CCF9DE6D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nesting element" sheetId="1" r:id="rId1"/>
     <sheet name="Nesting property" sheetId="2" r:id="rId2"/>
+    <sheet name="Referencing Parent Selectors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>構成</t>
   </si>
@@ -232,6 +233,83 @@
       </rPr>
       <t>: bold; }</t>
     </r>
+  </si>
+  <si>
+    <t>3.Referencing-Parent-Selectors</t>
+  </si>
+  <si>
+    <t>03-reference-parent.scss</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>                background-color: red;</t>
+  </si>
+  <si>
+    <r>
+      <t>           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:hover{</t>
+    </r>
+  </si>
+  <si>
+    <t>03-reference-parent.css</t>
+  </si>
+  <si>
+    <t>  font-size: 30em;</t>
+  </si>
+  <si>
+    <t>  font-weight: bold; }</t>
+  </si>
+  <si>
+    <t>    background-color: red; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div.abc div.abc-child a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:hover {</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;=div.abc div.abc-child a</t>
   </si>
 </sst>
 </file>
@@ -262,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -350,11 +428,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -367,6 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,6 +1137,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E012381-D800-B2CA-7C2D-90D774E59E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="3771900"/>
+          <a:ext cx="0" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1800,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E0BB2-2928-418D-AE6D-ECA0961162E1}">
   <dimension ref="A2:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="J208" sqref="J208"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,4 +2318,317 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B44EB8-1F67-43CC-BD16-7024D8163E57}">
+  <dimension ref="A2:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>